--- a/results/DRSA/FileVC_DRSA_DOMLEM_OLD1.xlsx
+++ b/results/DRSA/FileVC_DRSA_DOMLEM_OLD1.xlsx
@@ -668,34 +668,34 @@
     <t>Reguła 10</t>
   </si>
   <si>
-    <t>(age &gt;=  40.0) &amp; (woman_eval &lt;=  2.0) =&gt; (class &lt;= 1) ['a23', 'a49']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  38.0) =&gt; (class &lt;= 2) ['a23', 'a5', 'a6', 'a33', 'a36', 'a41', 'a49', 'a17', 'a48', 'a11', 'a51', 'a3']</t>
-  </si>
-  <si>
-    <t>(morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a30', 'a33', 'a7', 'a11', 'a4', 'a9']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  27.0) =&gt; (class &lt;= 3) ['a20', 'a21', 'a35', 'a8', 'a27', 'a30', 'a37', 'a5', 'a41', 'a47', 'a10', 'a49', 'a1', 'a16', 'a50', 'a28', 'a31', 'a19', 'a22', 'a48', 'a51', 'a3', 'a15', 'a43', 'a23', 'a25', 'a44', 'a36', 'a32', 'a18', 'a13', 'a46', 'a11', 'a2', 'a4', 'a9', 'a14', 'a12', 'a6', 'a26', 'a33', 'a7', 'a40', 'a24', 'a39', 'a17', 'a45', 'a34', 'a29', 'a38']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  2.0) =&gt; (class &lt;= 3) ['a5', 'a2', 'a7', 'a42']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  38.0) =&gt; (class &gt;= 3) ['a20', 'a21', 'a35', 'a8', 'a27', 'a30', 'a37', 'a41', 'a47', 'a10', 'a1', 'a16', 'a50', 'a28', 'a31', 'a19', 'a22', 'a3', 'a15', 'a43', 'a25', 'a44', 'a36', 'a32', 'a18', 'a13', 'a46', 'a2', 'a4', 'a9', 'a14', 'a12', 'a26', 'a40', 'a45', 'a7', 'a24', 'a39', 'a17', 'a42', 'a34', 'a29', 'a38']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 3) ['a8', 'a47', 'a10', 'a49', 'a1', 'a22', 'a48', 'a3', 'a43', 'a25', 'a18', 'a13', 'a46', 'a2', 'a14', 'a12', 'a45', 'a7', 'a39', 'a38']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a20', 'a21', 'a35', 'a8', 'a27', 'a30', 'a37', 'a41', 'a47', 'a10', 'a1', 'a16', 'a50', 'a28', 'a31', 'a19', 'a22', 'a3', 'a15', 'a43', 'a25', 'a44', 'a36', 'a32', 'a18', 'a13', 'a46', 'a11', 'a2', 'a4', 'a9', 'a14', 'a12', 'a26', 'a33', 'a40', 'a7', 'a45', 'a24', 'a39', 'a17', 'a42', 'a34', 'a29', 'a38']</t>
-  </si>
-  <si>
-    <t>(woman_eval &gt;=  3.0) =&gt; (class &gt;= 2) ['a20', 'a21', 'a8', 'a27', 'a30', 'a37', 'a5', 'a41', 'a47', 'a10', 'a1', 'a16', 'a50', 'a19', 'a48', 'a51', 'a43', 'a25', 'a44', 'a36', 'a32', 'a18', 'a13', 'a11', 'a2', 'a4', 'a14', 'a12', 'a6', 'a26', 'a40', 'a7', 'a45', 'a24', 'a39', 'a17', 'a34', 'a29', 'a38']</t>
-  </si>
-  <si>
-    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 2) ['a8', 'a47', 'a10', 'a49', 'a1', 'a22', 'a48', 'a3', 'a43', 'a25', 'a18', 'a13', 'a46', 'a2', 'a14', 'a12', 'a45', 'a7', 'a39', 'a38']</t>
+    <t>(age &gt;=  40.0) &amp; (woman_eval &lt;=  2.0) =&gt; (class &lt;= 1) ['a49', 'a23']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  38.0) =&gt; (class &lt;= 2) ['a17', 'a48', 'a11', 'a23', 'a6', 'a41', 'a33', 'a36', 'a3', 'a5', 'a51', 'a49']</t>
+  </si>
+  <si>
+    <t>(morpho_quality &lt;=  9.0) =&gt; (class &lt;= 2) ['a30', 'a7', 'a11', 'a9', 'a33', 'a4']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  27.0) =&gt; (class &lt;= 3) ['a26', 'a9', 'a18', 'a33', 'a38', 'a34', 'a14', 'a51', 'a29', 'a49', 'a12', 'a30', 'a40', 'a17', 'a24', 'a23', 'a25', 'a32', 'a43', 'a5', 'a21', 'a4', 'a44', 'a2', 'a10', 'a8', 'a20', 'a47', 'a48', 'a6', 'a37', 'a36', 'a16', 'a31', 'a35', 'a50', 'a7', 'a11', 'a39', 'a46', 'a45', 'a28', 'a41', 'a1', 'a27', 'a3', 'a15', 'a13', 'a19', 'a22']</t>
+  </si>
+  <si>
+    <t>(sperm &lt;=  2.0) =&gt; (class &lt;= 3) ['a5', 'a42', 'a2', 'a7']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  38.0) =&gt; (class &gt;= 3) ['a26', 'a9', 'a18', 'a38', 'a34', 'a14', 'a29', 'a12', 'a30', 'a40', 'a17', 'a24', 'a25', 'a32', 'a43', 'a21', 'a4', 'a44', 'a2', 'a10', 'a8', 'a20', 'a47', 'a37', 'a36', 'a16', 'a31', 'a35', 'a50', 'a7', 'a39', 'a46', 'a42', 'a45', 'a28', 'a41', 'a1', 'a27', 'a3', 'a15', 'a13', 'a19', 'a22']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 3) ['a18', 'a38', 'a14', 'a49', 'a12', 'a25', 'a43', 'a2', 'a10', 'a8', 'a47', 'a48', 'a7', 'a39', 'a46', 'a45', 'a1', 'a3', 'a13', 'a22']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  39.0) =&gt; (class &gt;= 2) ['a26', 'a9', 'a18', 'a33', 'a38', 'a34', 'a14', 'a29', 'a12', 'a30', 'a40', 'a17', 'a24', 'a25', 'a32', 'a43', 'a21', 'a4', 'a44', 'a2', 'a10', 'a8', 'a20', 'a47', 'a37', 'a36', 'a16', 'a31', 'a35', 'a50', 'a7', 'a11', 'a39', 'a46', 'a42', 'a45', 'a28', 'a41', 'a1', 'a27', 'a3', 'a15', 'a13', 'a19', 'a22']</t>
+  </si>
+  <si>
+    <t>(woman_eval &gt;=  3.0) =&gt; (class &gt;= 2) ['a26', 'a18', 'a38', 'a34', 'a14', 'a51', 'a29', 'a12', 'a30', 'a40', 'a17', 'a24', 'a25', 'a32', 'a43', 'a5', 'a21', 'a4', 'a44', 'a2', 'a10', 'a8', 'a20', 'a47', 'a48', 'a6', 'a37', 'a36', 'a16', 'a50', 'a7', 'a11', 'a39', 'a45', 'a41', 'a1', 'a27', 'a13', 'a19']</t>
+  </si>
+  <si>
+    <t>(infertility &lt;=  2.0) =&gt; (class &gt;= 2) ['a18', 'a38', 'a14', 'a49', 'a12', 'a25', 'a43', 'a2', 'a10', 'a8', 'a47', 'a48', 'a7', 'a39', 'a46', 'a45', 'a1', 'a3', 'a13', 'a22']</t>
   </si>
   <si>
     <t>support</t>
@@ -707,16 +707,16 @@
     <t>coverage</t>
   </si>
   <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>not_classified</t>
+  </si>
+  <si>
     <t>correct</t>
   </si>
   <si>
-    <t>not_classified</t>
-  </si>
-  <si>
     <t>f1_score</t>
-  </si>
-  <si>
-    <t>accuracy</t>
   </si>
   <si>
     <t>Obiekt</t>
@@ -2706,7 +2706,7 @@
         <v>229</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.7450980392156863</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>230</v>
       </c>
       <c r="B4">
-        <v>0.7450980392156863</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4735,7 +4735,7 @@
         <v>0.0392156862745098</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4757,7 +4757,7 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="C4">
-        <v>0.12</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4779,7 +4779,7 @@
         <v>0.07843137254901961</v>
       </c>
       <c r="C6">
-        <v>0.0975609756097561</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4823,7 +4823,7 @@
         <v>0.7647058823529411</v>
       </c>
       <c r="C10">
-        <v>4.333333333333333</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="11" spans="1:3">
